--- a/src/statistic.xlsx
+++ b/src/statistic.xlsx
@@ -1,101 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuziq\Documents\gnss_ir_analyze\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306D0610-779C-4D38-A402-746C38916D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="1608" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>median_2</t>
-  </si>
-  <si>
-    <t>median_3</t>
-  </si>
-  <si>
-    <t>diff median</t>
-  </si>
-  <si>
-    <t>antenne2</t>
-  </si>
-  <si>
-    <t>antenne3</t>
-  </si>
-  <si>
-    <t>diff antenne</t>
-  </si>
-  <si>
-    <t>0907</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -107,57 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,141 +420,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>median_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>median_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>diff median</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>antenne2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>antenne3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>diff antenne</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0907</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3.029999999999887</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.18099999999987</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.1509999999999834</v>
+      </c>
+      <c r="F2" t="n">
+        <v>287.3377137584612</v>
+      </c>
+      <c r="G2" t="n">
+        <v>287.4670358905569</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.1293221320956945</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3.104999999999878</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.931999999999897</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1729999999999809</v>
+      </c>
+      <c r="F3" t="n">
+        <v>287.3948024064302</v>
+      </c>
+      <c r="G3" t="n">
+        <v>287.3579142251983</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03688818123191595</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3.065999999999883</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.151999999999873</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.08599999999999053</v>
+      </c>
+      <c r="F4" t="n">
+        <v>287.446528531611</v>
+      </c>
+      <c r="G4" t="n">
+        <v>287.4739383431152</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.0274098115041852</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>3.05</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3.1974999999998701</v>
-      </c>
-      <c r="D2" s="5">
-        <v>-0.15</v>
-      </c>
-      <c r="E2">
-        <v>287.33999999999997</v>
-      </c>
-      <c r="F2">
-        <v>287.47000000000003</v>
-      </c>
-      <c r="G2" s="7">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>3.1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2.9319999999998969</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="E3">
-        <v>287.39</v>
-      </c>
-      <c r="F3">
-        <v>287.36</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3.06</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3.1519999999998731</v>
-      </c>
-      <c r="D4" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="E4">
-        <v>287.45</v>
-      </c>
-      <c r="F4">
-        <v>287.47000000000003</v>
-      </c>
-      <c r="G4" s="7">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>3.35</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3.0719999999998819</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E5">
-        <v>287.41000000000003</v>
-      </c>
-      <c r="F5">
-        <v>287.42</v>
-      </c>
-      <c r="G5" s="7">
-        <v>-0.01</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3.243999999999863</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.991999999999891</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2519999999999722</v>
+      </c>
+      <c r="F5" t="n">
+        <v>287.4075896572322</v>
+      </c>
+      <c r="G5" t="n">
+        <v>287.4217736981809</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.01418404094874859</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/statistic.xlsx
+++ b/src/statistic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,26 +476,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0907</t>
+          <t>0811</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.029999999999887</v>
+        <v>3.104999999999878</v>
       </c>
       <c r="D2" t="n">
-        <v>3.18099999999987</v>
+        <v>3.194999999999868</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1509999999999834</v>
+        <v>-0.08999999999999009</v>
       </c>
       <c r="F2" t="n">
-        <v>287.3377137584612</v>
+        <v>287.4509069621563</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4670358905569</v>
+        <v>287.438580384478</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1293221320956945</v>
+        <v>0.01232657767832279</v>
       </c>
     </row>
     <row r="3">
@@ -504,26 +504,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>0907</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.104999999999878</v>
+        <v>3.029999999999887</v>
       </c>
       <c r="D3" t="n">
-        <v>2.931999999999897</v>
+        <v>3.18099999999987</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1729999999999809</v>
+        <v>-0.1509999999999834</v>
       </c>
       <c r="F3" t="n">
-        <v>287.3948024064302</v>
+        <v>287.3377137584612</v>
       </c>
       <c r="G3" t="n">
-        <v>287.3579142251983</v>
+        <v>287.4670358905569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03688818123191595</v>
+        <v>-0.1293221320956945</v>
       </c>
     </row>
     <row r="4">
@@ -532,26 +532,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.065999999999883</v>
+        <v>3.104999999999878</v>
       </c>
       <c r="D4" t="n">
-        <v>3.151999999999873</v>
+        <v>2.931999999999897</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.08599999999999053</v>
+        <v>0.1729999999999809</v>
       </c>
       <c r="F4" t="n">
-        <v>287.446528531611</v>
+        <v>287.3948024064302</v>
       </c>
       <c r="G4" t="n">
-        <v>287.4739383431152</v>
+        <v>287.3579142251983</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0274098115041852</v>
+        <v>0.03688818123191595</v>
       </c>
     </row>
     <row r="5">
@@ -560,25 +560,53 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3.065999999999883</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.151999999999873</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.08599999999999053</v>
+      </c>
+      <c r="F5" t="n">
+        <v>287.446528531611</v>
+      </c>
+      <c r="G5" t="n">
+        <v>287.4739383431152</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.0274098115041852</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3.243999999999863</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.991999999999891</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>0.2519999999999722</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>287.4075896572322</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>287.4217736981809</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>-0.01418404094874859</v>
       </c>
     </row>

--- a/src/statistic.xlsx
+++ b/src/statistic.xlsx
@@ -1,37 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76dbd0bb75f3aa62/Studium/MA/gnss_ir_analyze/src/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_496DBC1FC779E6CFEE46509651245E3FB48F8B3E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5782098F-6287-4D95-8D8D-9BF589110502}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2625" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>median_2</t>
+  </si>
+  <si>
+    <t>median_3</t>
+  </si>
+  <si>
+    <t>diff median</t>
+  </si>
+  <si>
+    <t>antenne2</t>
+  </si>
+  <si>
+    <t>antenne3</t>
+  </si>
+  <si>
+    <t>diff antenne</t>
+  </si>
+  <si>
+    <t>0811</t>
+  </si>
+  <si>
+    <t>0907</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +101,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,197 +425,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>median_2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>median_3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>diff median</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>antenne2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>antenne3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>diff antenne</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0811</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3.104999999999878</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.194999999999868</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.08999999999999009</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>3.1049999999998779</v>
+      </c>
+      <c r="D2">
+        <v>3.1949999999998679</v>
+      </c>
+      <c r="E2">
+        <v>-8.9999999999990088E-2</v>
+      </c>
+      <c r="F2">
         <v>287.4509069621563</v>
       </c>
-      <c r="G2" t="n">
-        <v>287.438580384478</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.01232657767832279</v>
+      <c r="G2">
+        <v>287.43858038447797</v>
+      </c>
+      <c r="H2">
+        <v>1.232657767832279E-2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0907</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>3.029999999999887</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.18099999999987</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>3.1809999999998699</v>
+      </c>
+      <c r="E3">
         <v>-0.1509999999999834</v>
       </c>
-      <c r="F3" t="n">
-        <v>287.3377137584612</v>
-      </c>
-      <c r="G3" t="n">
-        <v>287.4670358905569</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.1293221320956945</v>
+      <c r="F3">
+        <v>287.33771375846118</v>
+      </c>
+      <c r="G3">
+        <v>287.46703589055687</v>
+      </c>
+      <c r="H3">
+        <v>-0.12932213209569449</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3.104999999999878</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.931999999999897</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1729999999999809</v>
-      </c>
-      <c r="F4" t="n">
-        <v>287.3948024064302</v>
-      </c>
-      <c r="G4" t="n">
-        <v>287.3579142251983</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.03688818123191595</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3.1049999999998779</v>
+      </c>
+      <c r="D4">
+        <v>2.9319999999998969</v>
+      </c>
+      <c r="E4">
+        <v>0.17299999999998089</v>
+      </c>
+      <c r="F4">
+        <v>287.39480240643019</v>
+      </c>
+      <c r="G4">
+        <v>287.35791422519827</v>
+      </c>
+      <c r="H4">
+        <v>3.6888181231915951E-2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1031</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>3.065999999999883</v>
       </c>
-      <c r="D5" t="n">
-        <v>3.151999999999873</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.08599999999999053</v>
-      </c>
-      <c r="F5" t="n">
-        <v>287.446528531611</v>
-      </c>
-      <c r="G5" t="n">
-        <v>287.4739383431152</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.0274098115041852</v>
+      <c r="D5">
+        <v>3.1519999999998731</v>
+      </c>
+      <c r="E5">
+        <v>-8.5999999999990528E-2</v>
+      </c>
+      <c r="F5">
+        <v>287.44652853161102</v>
+      </c>
+      <c r="G5">
+        <v>287.47393834311521</v>
+      </c>
+      <c r="H5">
+        <v>-2.74098115041852E-2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1127</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>3.243999999999863</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.991999999999891</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2519999999999722</v>
-      </c>
-      <c r="F6" t="n">
-        <v>287.4075896572322</v>
-      </c>
-      <c r="G6" t="n">
-        <v>287.4217736981809</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.01418404094874859</v>
+      <c r="D6">
+        <v>2.9919999999998912</v>
+      </c>
+      <c r="E6">
+        <v>0.25199999999997219</v>
+      </c>
+      <c r="F6">
+        <v>287.40758965723222</v>
+      </c>
+      <c r="G6">
+        <v>287.42177369818091</v>
+      </c>
+      <c r="H6">
+        <v>-1.418404094874859E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>